--- a/MODS-DC-Generators/Illustrative-MODS-Generator-NEW/Illustrative_Images_DC17.xlsx
+++ b/MODS-DC-Generators/Illustrative-MODS-Generator-NEW/Illustrative_Images_DC17.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24760" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="24660" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8564" uniqueCount="2255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8571" uniqueCount="2259">
   <si>
     <t>liv_013001</t>
   </si>
@@ -6784,6 +6784,18 @@
   </si>
   <si>
     <t>Adrian S. Wisnicki, Justin Livingstone, and Heather F. Ball at University of Glasgow Library, 2017</t>
+  </si>
+  <si>
+    <t>liv_016252</t>
+  </si>
+  <si>
+    <t>Nigel Banks, 2017</t>
+  </si>
+  <si>
+    <t>Banks, Nigel</t>
+  </si>
+  <si>
+    <t>Copyright Nigel Banks. Creative Commons Attribution-NonCommercial 3.0 Unported (https://creativecommons.org/licenses/by-nc/3.0/).</t>
   </si>
 </sst>
 </file>
@@ -6796,6 +6808,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6900,7 +6913,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="416">
+  <cellStyleXfs count="422">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6962,6 +6975,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7387,7 +7406,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="416">
+  <cellStyles count="422">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -7604,6 +7623,9 @@
     <cellStyle name="Followed Hyperlink" xfId="411" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="413" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="421" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -7803,6 +7825,9 @@
     <cellStyle name="Hyperlink" xfId="410" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="412" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="414" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="416" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="418" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="420" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8132,11 +8157,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1189"/>
+  <dimension ref="A1:I1190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1168" sqref="I1168:I1188"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1183" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1190" sqref="A1190:I1190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -40303,6 +40328,32 @@
         <v>1920</v>
       </c>
     </row>
+    <row r="1190" spans="1:9" ht="30">
+      <c r="A1190" s="22" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B1190" s="10" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C1190" s="7" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D1190" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1190" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="F1190" s="8">
+        <v>2017</v>
+      </c>
+      <c r="G1190" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="I1190" s="21" t="s">
+        <v>2258</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I802">
     <sortCondition ref="A2:A802"/>

--- a/MODS-DC-Generators/Illustrative-MODS-Generator-NEW/Illustrative_Images_DC17.xlsx
+++ b/MODS-DC-Generators/Illustrative-MODS-Generator-NEW/Illustrative_Images_DC17.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8571" uniqueCount="2259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8613" uniqueCount="2272">
   <si>
     <t>liv_013001</t>
   </si>
@@ -6796,6 +6796,45 @@
   </si>
   <si>
     <t>Copyright Nigel Banks. Creative Commons Attribution-NonCommercial 3.0 Unported (https://creativecommons.org/licenses/by-nc/3.0/).</t>
+  </si>
+  <si>
+    <t>liv_016253</t>
+  </si>
+  <si>
+    <t>liv_016254</t>
+  </si>
+  <si>
+    <t>liv_016255</t>
+  </si>
+  <si>
+    <t>liv_016256</t>
+  </si>
+  <si>
+    <t>liv_016257</t>
+  </si>
+  <si>
+    <t>liv_016258</t>
+  </si>
+  <si>
+    <t>Lindsay, Neil R.</t>
+  </si>
+  <si>
+    <t>Copyright Neil R. Lindsay. Courtesy of Neil R. Lindsay.</t>
+  </si>
+  <si>
+    <t>Memorial Commemorating Livingstone-Stanley Meeting, Ujiji, Tanzania, 2017</t>
+  </si>
+  <si>
+    <t>Plaque from Memorial Commemorating Livingstone-Stanley Meeting, Ujiji, Tanzania, 2017</t>
+  </si>
+  <si>
+    <t>Sign for Dr. Livingstone Memorial Museum, Ujiji, Tanzania, 2017</t>
+  </si>
+  <si>
+    <t>Aerial View of Dr. Livingstone Memorial Museum, Ujiji, Tanzania, 2017</t>
+  </si>
+  <si>
+    <t>Plaque Commemorating Richard Burton and John H. Speke's Arrival at Lake Tanganyika, Ujiji, Tanzania, 2017</t>
   </si>
 </sst>
 </file>
@@ -6913,7 +6952,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="422">
+  <cellStyleXfs count="430">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7336,8 +7375,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7405,8 +7452,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="422">
+  <cellStyles count="430">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -7626,6 +7679,10 @@
     <cellStyle name="Followed Hyperlink" xfId="417" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="419" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="429" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -7828,6 +7885,10 @@
     <cellStyle name="Hyperlink" xfId="416" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="418" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="420" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="422" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="424" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="426" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="428" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8157,11 +8218,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1190"/>
+  <dimension ref="A1:I1196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1183" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1190" sqref="A1190:I1190"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1191" sqref="A1191:I1196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -40354,6 +40415,162 @@
         <v>2258</v>
       </c>
     </row>
+    <row r="1191" spans="1:9" ht="30">
+      <c r="A1191" s="22" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B1191" s="23" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C1191" s="7" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D1191" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1191" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="F1191" s="8">
+        <v>2017</v>
+      </c>
+      <c r="G1191" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="I1191" s="21" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:9" ht="30">
+      <c r="A1192" s="22" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B1192" s="23" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C1192" s="7" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D1192" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1192" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="F1192" s="8">
+        <v>2017</v>
+      </c>
+      <c r="G1192" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="I1192" s="21" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:9" ht="30">
+      <c r="A1193" s="22" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B1193" s="20" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C1193" s="7" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D1193" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1193" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="F1193" s="8">
+        <v>2017</v>
+      </c>
+      <c r="G1193" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="I1193" s="21" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:9" ht="30">
+      <c r="A1194" s="22" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B1194" s="23" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C1194" s="7" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D1194" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1194" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="F1194" s="8">
+        <v>2017</v>
+      </c>
+      <c r="G1194" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="I1194" s="21" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:9" ht="30">
+      <c r="A1195" s="22" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B1195" s="24" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C1195" s="7" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D1195" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1195" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="F1195" s="8">
+        <v>2017</v>
+      </c>
+      <c r="G1195" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="I1195" s="21" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:9" ht="30">
+      <c r="A1196" s="22" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B1196" s="23" t="s">
+        <v>2271</v>
+      </c>
+      <c r="C1196" s="7" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D1196" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1196" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="F1196" s="8">
+        <v>2017</v>
+      </c>
+      <c r="G1196" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="I1196" s="21" t="s">
+        <v>2266</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I802">
     <sortCondition ref="A2:A802"/>

--- a/MODS-DC-Generators/Illustrative-MODS-Generator-NEW/Illustrative_Images_DC17.xlsx
+++ b/MODS-DC-Generators/Illustrative-MODS-Generator-NEW/Illustrative_Images_DC17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24660" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="24340" windowHeight="15040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8613" uniqueCount="2272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8620" uniqueCount="2276">
   <si>
     <t>liv_013001</t>
   </si>
@@ -6835,6 +6835,18 @@
   </si>
   <si>
     <t>Plaque Commemorating Richard Burton and John H. Speke's Arrival at Lake Tanganyika, Ujiji, Tanzania, 2017</t>
+  </si>
+  <si>
+    <t>liv_016259</t>
+  </si>
+  <si>
+    <t>Heather F. Ball, 2017</t>
+  </si>
+  <si>
+    <t>Rodriguez, Andreina</t>
+  </si>
+  <si>
+    <t>Copyright The Torch/Andreina Rodriguez. Courtesy of St. John's University.</t>
   </si>
 </sst>
 </file>
@@ -6952,7 +6964,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="430">
+  <cellStyleXfs count="438">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7014,6 +7026,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7459,7 +7479,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="430">
+  <cellStyles count="438">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -7683,6 +7703,10 @@
     <cellStyle name="Followed Hyperlink" xfId="425" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="427" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="437" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -7889,6 +7913,10 @@
     <cellStyle name="Hyperlink" xfId="424" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="426" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="428" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="430" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="432" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="434" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="436" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8218,11 +8246,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1196"/>
+  <dimension ref="A1:I1197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1191" sqref="A1191:I1196"/>
+      <selection pane="bottomLeft" activeCell="A1197" sqref="A1197:I1197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -40571,6 +40599,32 @@
         <v>2266</v>
       </c>
     </row>
+    <row r="1197" spans="1:9" ht="30">
+      <c r="A1197" s="22" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B1197" s="20" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C1197" s="20" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D1197" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1197" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="F1197" s="8">
+        <v>2017</v>
+      </c>
+      <c r="G1197" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="I1197" s="20" t="s">
+        <v>2275</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I802">
     <sortCondition ref="A2:A802"/>

--- a/MODS-DC-Generators/Illustrative-MODS-Generator-NEW/Illustrative_Images_DC17.xlsx
+++ b/MODS-DC-Generators/Illustrative-MODS-Generator-NEW/Illustrative_Images_DC17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="24340" windowHeight="15040" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24900" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8620" uniqueCount="2276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8634" uniqueCount="2282">
   <si>
     <t>liv_013001</t>
   </si>
@@ -6847,6 +6847,24 @@
   </si>
   <si>
     <t>Copyright The Torch/Andreina Rodriguez. Courtesy of St. John's University.</t>
+  </si>
+  <si>
+    <t>liv_016260</t>
+  </si>
+  <si>
+    <t>liv_016261</t>
+  </si>
+  <si>
+    <t>Memorial in the old Simonstown Naval Cemetery, South Africa, 2018</t>
+  </si>
+  <si>
+    <t>Silicified trees: Dadoxylon (left and center) and Rhexoxylon (right) from area due south of Zumbo, South Africa, 2018</t>
+  </si>
+  <si>
+    <t>Walter, Lewis</t>
+  </si>
+  <si>
+    <t>Copyright Lewis Walter. Used by permission.</t>
   </si>
 </sst>
 </file>
@@ -6859,7 +6877,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6964,7 +6981,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="438">
+  <cellStyleXfs count="446">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7026,6 +7043,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7479,7 +7504,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="438">
+  <cellStyles count="446">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -7707,6 +7732,10 @@
     <cellStyle name="Followed Hyperlink" xfId="433" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="435" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="445" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -7917,6 +7946,10 @@
     <cellStyle name="Hyperlink" xfId="432" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="434" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="436" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="438" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="440" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="442" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="444" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8246,11 +8279,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1197"/>
+  <dimension ref="A1:I1199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1197" sqref="A1197:I1197"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1186" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1199" sqref="I1199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -40625,6 +40658,58 @@
         <v>2275</v>
       </c>
     </row>
+    <row r="1198" spans="1:9" ht="30">
+      <c r="A1198" s="22" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B1198" s="23" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C1198" s="20" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D1198" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1198" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="F1198" s="8">
+        <v>2018</v>
+      </c>
+      <c r="G1198" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="I1198" s="7" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:9" ht="30">
+      <c r="A1199" s="22" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B1199" s="23" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C1199" s="20" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D1199" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1199" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="F1199" s="8">
+        <v>2018</v>
+      </c>
+      <c r="G1199" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="I1199" s="7" t="s">
+        <v>2281</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I802">
     <sortCondition ref="A2:A802"/>

--- a/MODS-DC-Generators/Illustrative-MODS-Generator-NEW/Illustrative_Images_DC17.xlsx
+++ b/MODS-DC-Generators/Illustrative-MODS-Generator-NEW/Illustrative_Images_DC17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24900" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="24640" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8634" uniqueCount="2282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8641" uniqueCount="2285">
   <si>
     <t>liv_013001</t>
   </si>
@@ -6865,6 +6865,15 @@
   </si>
   <si>
     <t>Copyright Lewis Walter. Used by permission.</t>
+  </si>
+  <si>
+    <t>liv_016262</t>
+  </si>
+  <si>
+    <t>Slave stick, reportedly removed by David Livingstone from the neck of a slave, 1840-1870</t>
+  </si>
+  <si>
+    <t>Copyright David Livingstone Centre. May not be reproduced without the express written consent of the National Trust for Scotland, on behalf of the Scottish National Memorial to David Livingstone Trust.</t>
   </si>
 </sst>
 </file>
@@ -6981,7 +6990,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="446">
+  <cellStyleXfs count="448">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7428,8 +7437,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7503,8 +7514,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="446">
+  <cellStyles count="448">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -7736,6 +7750,7 @@
     <cellStyle name="Followed Hyperlink" xfId="441" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="443" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="447" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -7950,6 +7965,7 @@
     <cellStyle name="Hyperlink" xfId="440" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="442" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="444" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="446" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8279,11 +8295,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1199"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1186" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1199" sqref="I1199"/>
+      <pane ySplit="1" topLeftCell="A1195" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1200" sqref="I1200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -40710,6 +40726,32 @@
         <v>2281</v>
       </c>
     </row>
+    <row r="1200" spans="1:9" ht="45">
+      <c r="A1200" s="22" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B1200" s="23" t="s">
+        <v>2283</v>
+      </c>
+      <c r="C1200" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="D1200" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1200" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="F1200" s="8">
+        <v>1840</v>
+      </c>
+      <c r="G1200" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="I1200" s="25" t="s">
+        <v>2284</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I802">
     <sortCondition ref="A2:A802"/>

--- a/MODS-DC-Generators/Illustrative-MODS-Generator-NEW/Illustrative_Images_DC17.xlsx
+++ b/MODS-DC-Generators/Illustrative-MODS-Generator-NEW/Illustrative_Images_DC17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24640" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24900" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8641" uniqueCount="2285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8690" uniqueCount="2295">
   <si>
     <t>liv_013001</t>
   </si>
@@ -6874,6 +6874,36 @@
   </si>
   <si>
     <t>Copyright David Livingstone Centre. May not be reproduced without the express written consent of the National Trust for Scotland, on behalf of the Scottish National Memorial to David Livingstone Trust.</t>
+  </si>
+  <si>
+    <t>liv_016263</t>
+  </si>
+  <si>
+    <t>liv_016264</t>
+  </si>
+  <si>
+    <t>liv_016265</t>
+  </si>
+  <si>
+    <t>liv_016266</t>
+  </si>
+  <si>
+    <t>liv_016267</t>
+  </si>
+  <si>
+    <t>liv_016268</t>
+  </si>
+  <si>
+    <t>liv_016269</t>
+  </si>
+  <si>
+    <t>Auction advertisement for David Livingstone, Letter to Richard Owen, 26 December 1864, [1970s?]</t>
+  </si>
+  <si>
+    <t>Elmer L. Andersen Library, University of Minnesota, 2018</t>
+  </si>
+  <si>
+    <t>Archival box that holds Livingstone manuscript, Elmer L. Andersen Library, University of Minnesota, 2018</t>
   </si>
 </sst>
 </file>
@@ -6990,7 +7020,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="448">
+  <cellStyleXfs count="472">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7052,6 +7082,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7518,7 +7572,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="448">
+  <cellStyles count="472">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -7751,6 +7805,18 @@
     <cellStyle name="Followed Hyperlink" xfId="443" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="445" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="471" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -7966,6 +8032,18 @@
     <cellStyle name="Hyperlink" xfId="442" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="444" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="446" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="448" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="450" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="452" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="454" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="456" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="458" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="460" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="462" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="464" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="466" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="468" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="470" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8295,11 +8373,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1195" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1200" sqref="I1200"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1196" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1212" sqref="B1212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -40752,6 +40830,188 @@
         <v>2284</v>
       </c>
     </row>
+    <row r="1201" spans="1:9" ht="30">
+      <c r="A1201" s="22" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B1201" s="10" t="s">
+        <v>2293</v>
+      </c>
+      <c r="C1201" s="7" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D1201" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1201" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="F1201" s="8">
+        <v>2018</v>
+      </c>
+      <c r="G1201" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="I1201" s="21" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:9" ht="30">
+      <c r="A1202" s="22" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B1202" s="10" t="s">
+        <v>2293</v>
+      </c>
+      <c r="C1202" s="7" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D1202" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1202" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="F1202" s="8">
+        <v>2018</v>
+      </c>
+      <c r="G1202" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="I1202" s="21" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:9" ht="30">
+      <c r="A1203" s="22" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B1203" s="10" t="s">
+        <v>2293</v>
+      </c>
+      <c r="C1203" s="7" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D1203" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1203" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="F1203" s="8">
+        <v>2018</v>
+      </c>
+      <c r="G1203" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="I1203" s="21" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:9" ht="30">
+      <c r="A1204" s="22" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B1204" s="10" t="s">
+        <v>2293</v>
+      </c>
+      <c r="C1204" s="7" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D1204" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1204" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="F1204" s="8">
+        <v>2018</v>
+      </c>
+      <c r="G1204" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="I1204" s="21" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:9" ht="30">
+      <c r="A1205" s="22" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B1205" s="10" t="s">
+        <v>2293</v>
+      </c>
+      <c r="C1205" s="7" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D1205" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1205" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="F1205" s="8">
+        <v>2018</v>
+      </c>
+      <c r="G1205" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="I1205" s="21" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:9" ht="30">
+      <c r="A1206" s="22" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B1206" s="10" t="s">
+        <v>2294</v>
+      </c>
+      <c r="C1206" s="7" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D1206" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1206" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="F1206" s="8">
+        <v>2018</v>
+      </c>
+      <c r="G1206" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="I1206" s="21" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:9" ht="30">
+      <c r="A1207" s="22" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B1207" s="10" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C1207" s="7" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D1207" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1207" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="F1207" s="8">
+        <v>2018</v>
+      </c>
+      <c r="G1207" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="I1207" s="21" t="s">
+        <v>1929</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I802">
     <sortCondition ref="A2:A802"/>

--- a/MODS-DC-Generators/Illustrative-MODS-Generator-NEW/Illustrative_Images_DC17.xlsx
+++ b/MODS-DC-Generators/Illustrative-MODS-Generator-NEW/Illustrative_Images_DC17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/LEAP-MODS/MODS-DC-Generators/Illustrative-MODS-Generator-NEW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1068FF14-758D-FC4C-B976-3576512E9CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62088E66-8F5A-194A-9BA3-9EA70D165CD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="460" windowWidth="24900" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8711" uniqueCount="2304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8732" uniqueCount="2306">
   <si>
     <t>liv_013001</t>
   </si>
@@ -6933,10 +6933,16 @@
     <t>Saynor, Marjorie</t>
   </si>
   <si>
-    <t>2 images</t>
-  </si>
-  <si>
     <t>Copyright status unknown.</t>
+  </si>
+  <si>
+    <t>liv_016273</t>
+  </si>
+  <si>
+    <t>liv_016274</t>
+  </si>
+  <si>
+    <t>liv_016275</t>
   </si>
 </sst>
 </file>
@@ -8423,11 +8429,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1210" sqref="J1210"/>
+      <pane ySplit="1" topLeftCell="A1200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1213" sqref="E1213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -41092,11 +41098,11 @@
       <c r="A1209" s="22" t="s">
         <v>2297</v>
       </c>
-      <c r="B1209" s="20" t="s">
-        <v>2299</v>
-      </c>
-      <c r="C1209" s="20" t="s">
-        <v>2301</v>
+      <c r="B1209" s="26" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C1209" s="7" t="s">
+        <v>1740</v>
       </c>
       <c r="D1209" s="6" t="s">
         <v>669</v>
@@ -41105,39 +41111,117 @@
         <v>664</v>
       </c>
       <c r="F1209" s="8">
-        <v>1973</v>
+        <v>2019</v>
       </c>
       <c r="G1209" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="I1209" s="20" t="s">
-        <v>2303</v>
+      <c r="I1209" s="21" t="s">
+        <v>1929</v>
       </c>
     </row>
     <row r="1210" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A1210" s="22" t="s">
         <v>2298</v>
       </c>
-      <c r="B1210" s="20" t="s">
+      <c r="B1210" s="26" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C1210" s="7" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D1210" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1210" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="F1210" s="8">
+        <v>2019</v>
+      </c>
+      <c r="G1210" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="I1210" s="21" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1211" s="22" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B1211" s="20" t="s">
+        <v>2299</v>
+      </c>
+      <c r="C1211" s="20" t="s">
+        <v>2301</v>
+      </c>
+      <c r="D1211" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1211" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="F1211" s="8">
+        <v>1973</v>
+      </c>
+      <c r="G1211" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="I1211" s="20" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1212" s="22" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B1212" s="20" t="s">
         <v>2300</v>
       </c>
-      <c r="C1210" s="13" t="s">
+      <c r="C1212" s="13" t="s">
         <v>682</v>
       </c>
-      <c r="D1210" s="6" t="s">
-        <v>669</v>
-      </c>
-      <c r="E1210" s="7" t="s">
+      <c r="D1212" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1212" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="F1212" s="8">
+        <v>1973</v>
+      </c>
+      <c r="G1212" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="I1212" s="20" t="s">
         <v>2302</v>
       </c>
-      <c r="F1210" s="8">
+    </row>
+    <row r="1213" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1213" s="22" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B1213" s="20" t="s">
+        <v>2300</v>
+      </c>
+      <c r="C1213" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="D1213" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1213" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="F1213" s="8">
         <v>1973</v>
       </c>
-      <c r="G1210" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="I1210" s="20" t="s">
-        <v>2303</v>
+      <c r="G1213" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="I1213" s="20" t="s">
+        <v>2302</v>
       </c>
     </row>
   </sheetData>
